--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr3_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr3_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.64453125" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
-    <col min="9" max="9" width="15.64453125" customWidth="true"/>
-    <col min="10" max="10" width="15.77734375" customWidth="true"/>
-    <col min="11" max="11" width="15.77734375" customWidth="true"/>
+    <col min="3" max="3" width="14.24609375" customWidth="true"/>
+    <col min="4" max="4" width="14.64453125" customWidth="true"/>
+    <col min="5" max="5" width="15.1796875" customWidth="true"/>
+    <col min="6" max="6" width="15.1796875" customWidth="true"/>
+    <col min="7" max="7" width="14.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="14.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.25531067330059631</v>
+        <v>0.15076719582481601</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.25096222600400725</v>
+        <v>0.05518870890509342</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.00402156829009301</v>
+        <v>-0.1562228311982668</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0001917539437780029</v>
+        <v>0.0048239305141474145</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0008257769644324605</v>
+        <v>0.042775232230304931</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00068518262520752735</v>
+        <v>0.0045998980368226611</v>
       </c>
       <c r="H3" s="0">
-        <v>-3.0023205077439609e-05</v>
+        <v>0.0025964215199161078</v>
       </c>
       <c r="I3" s="0">
-        <v>3.6912812066563003e-05</v>
+        <v>0.005841633645575159</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-1.4203304822268947e-06</v>
+        <v>7.2283317779087142e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.35765085675832348</v>
+        <v>0.58695377931798065</v>
       </c>
       <c r="C4" s="0">
-        <v>0.1061023080127234</v>
+        <v>0.3131750372458551</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.5939785079558864e-06</v>
+        <v>0.00021916920698598962</v>
       </c>
       <c r="F4" s="0">
-        <v>3.3408015266044291e-05</v>
+        <v>8.438460375139691e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-4.3241390660364579e-06</v>
+        <v>-0.0083240174594873401</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00055682970830374856</v>
+        <v>0.17871124917741721</v>
       </c>
       <c r="J4" s="0">
-        <v>-2.5443686067441757e-07</v>
+        <v>0.051146727817032694</v>
       </c>
       <c r="K4" s="0">
-        <v>-9.3038455822869182e-07</v>
+        <v>-0.0032474801786677165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.35757870403313674</v>
+        <v>0.40984076526220442</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00084445234383313296</v>
+        <v>0.0062948122879333754</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00048379154048302375</v>
+        <v>0.0063376394016686358</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0017412662538390555</v>
+        <v>-0.20150120390840096</v>
       </c>
       <c r="G5" s="0">
-        <v>0.001006083438338676</v>
+        <v>0.0033746140709261774</v>
       </c>
       <c r="H5" s="0">
-        <v>-2.9641762099746546e-05</v>
+        <v>-0.012829852503874466</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0041239554266213939</v>
+        <v>0.00788995122576556</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>5.8508870405260538e-06</v>
+        <v>0.013321025370205408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29916633664183029</v>
+        <v>0.21080750126090819</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.080044160885826637</v>
+        <v>-0.079563162840826512</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-4.6204399975099037e-06</v>
+        <v>7.6685923239856258e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00050165074876526883</v>
+        <v>-0.0049096516596187868</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-3.0629096149650613e-05</v>
+        <v>-0.012567203690949524</v>
       </c>
       <c r="I6" s="0">
-        <v>0.021163075793164097</v>
+        <v>-0.1022688823127209</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>2.3164887379967247e-06</v>
+        <v>0.00019895057957963758</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.15771120686803569</v>
+        <v>0.28200777046134912</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.13878893879612833</v>
+        <v>0.13055344870844746</v>
       </c>
       <c r="E7" s="0">
-        <v>1.2527896661625382e-05</v>
+        <v>-0.0085716423083979001</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0017911719752428997</v>
+        <v>-0.016223553061007756</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0013906030985898178</v>
+        <v>-0.001021937408957375</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.00020162636495264018</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00075233059640669481</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-4.7648031949232283e-05</v>
+        <v>-0.033536046729643498</v>
       </c>
     </row>
     <row r="8">
